--- a/biology/Botanique/Square_Amadou-Hampâté-Bâ/Square_Amadou-Hampâté-Bâ.xlsx
+++ b/biology/Botanique/Square_Amadou-Hampâté-Bâ/Square_Amadou-Hampâté-Bâ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Amadou-Hamp%C3%A2t%C3%A9-B%C3%A2</t>
+          <t>Square_Amadou-Hampâté-Bâ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Amadou-Hampâté-Bâ est un square du 10e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Amadou-Hamp%C3%A2t%C3%A9-B%C3%A2</t>
+          <t>Square_Amadou-Hampâté-Bâ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé dans le 10e arrondissement de Paris, au centre de la zone d'aménagement concerté Jemmapes Grange-aux-Belles. Il ouvre sur la place Robert-Desnos entre la rue Boy-Zelenski et la rue Georg-Friedrich-Haendel.
 Ce site est desservi par la ligne 2 à la station de métro Colonel Fabien.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Amadou-Hamp%C3%A2t%C3%A9-B%C3%A2</t>
+          <t>Square_Amadou-Hampâté-Bâ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square tire son nom de l'écrivain et ethnologue Amadou Hampâté Bâ (1900-1991).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Amadou-Hamp%C3%A2t%C3%A9-B%C3%A2</t>
+          <t>Square_Amadou-Hampâté-Bâ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est à cet endroit que se trouvait, jusqu'au XVIIIe siècle, le gibet de Montfaucon.
 La zone d'aménagement concerté Jemmapes Grange-aux-Belles, dont fait partie le square, a été construite en 1978 par les architectes Jacques Labro et Jean-Jacques Orzoni.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Amadou-Hamp%C3%A2t%C3%A9-B%C3%A2</t>
+          <t>Square_Amadou-Hampâté-Bâ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Aménagement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square Amadou-Hampâté-Bâ est équipé de deux aires de jeux, de neuf bancs, de sept corbeilles et d'aucun arbre[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square Amadou-Hampâté-Bâ est équipé de deux aires de jeux, de neuf bancs, de sept corbeilles et d'aucun arbre.
 </t>
         </is>
       </c>
